--- a/database2.xlsx
+++ b/database2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fengchia-my.sharepoint.com/personal/d1150224_o365_fcu_edu_tw/Documents/文件/GitHub/group_7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashitogi/Documents/GitHub/group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{1D396CD9-CFCA-4D31-9C83-EC5D9FB38D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4739B21F-D71B-4820-8827-D4D0CBA423F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6BC14D-6649-7347-94FC-D711488AA08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="1872" windowWidth="22320" windowHeight="10020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16880" windowHeight="15900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="421">
   <si>
     <t>學生姓名</t>
   </si>
@@ -136,12 +136,6 @@
     <t>A9876536</t>
   </si>
   <si>
-    <t>黃家豪</t>
-  </si>
-  <si>
-    <t>T1234559</t>
-  </si>
-  <si>
     <t>賴小偉</t>
   </si>
   <si>
@@ -160,12 +154,6 @@
     <t>A9876534</t>
   </si>
   <si>
-    <t>劉志明</t>
-  </si>
-  <si>
-    <t>T1234557</t>
-  </si>
-  <si>
     <t>楊小玲</t>
   </si>
   <si>
@@ -338,7 +326,7 @@
   </si>
   <si>
     <t>個人課表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>星期一 08:00-10:00</t>
@@ -380,916 +368,949 @@
     <t>計算機網絡</t>
   </si>
   <si>
+    <t>心理學概論</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>介紹心理學的基本理論、研究方法及應用範疇。</t>
+  </si>
+  <si>
+    <t>平時 20%、期中考 30%、期末考 50%</t>
+  </si>
+  <si>
+    <t>行銷學</t>
+  </si>
+  <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>本課程探討行銷理論、策略及其實務應用。</t>
+  </si>
+  <si>
+    <t>平時 25%、期中考 25%、期末考 25%、專題 25%</t>
+  </si>
+  <si>
+    <t>社會學導論</t>
+  </si>
+  <si>
+    <t>B103</t>
+  </si>
+  <si>
+    <t>探討社會結構與社會行為的基本概念及研究方法。</t>
+  </si>
+  <si>
+    <t>B104</t>
+  </si>
+  <si>
+    <t>介紹財務管理的基本原則與工具，分析企業財務決策。</t>
+  </si>
+  <si>
+    <t>企業管理</t>
+  </si>
+  <si>
+    <t>B105</t>
+  </si>
+  <si>
+    <t>本課程涵蓋企業管理的各個領域，包括計劃、組織、控制。</t>
+  </si>
+  <si>
+    <t>國際貿易</t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>介紹國際貿易的基本概念、理論及實務操作。</t>
+  </si>
+  <si>
+    <t>文化研究</t>
+  </si>
+  <si>
+    <t>星期二 11:00-13:00</t>
+  </si>
+  <si>
+    <t>B107</t>
+  </si>
+  <si>
+    <t>本課程探討文化的形成、發展及其社會影響。</t>
+  </si>
+  <si>
+    <t>法律導論</t>
+  </si>
+  <si>
+    <t>B108</t>
+  </si>
+  <si>
+    <t>介紹法律的基本概念、體系及其在社會中的角色。</t>
+  </si>
+  <si>
+    <t>B109</t>
+  </si>
+  <si>
+    <t>探討環境科學的基本概念及環境問題的解決方案。</t>
+  </si>
+  <si>
+    <t>教育心理學</t>
+  </si>
+  <si>
+    <t>星期五 08:00-10:00</t>
+  </si>
+  <si>
+    <t>B110</t>
+  </si>
+  <si>
+    <t>研究心理學在教育中的應用，包括學習動機與教學策略。</t>
+  </si>
+  <si>
+    <t>醫學倫理</t>
+  </si>
+  <si>
+    <t>B111</t>
+  </si>
+  <si>
+    <t>本課程探討醫學實踐中的倫理問題與道德決策。</t>
+  </si>
+  <si>
+    <t>企業社會責任</t>
+  </si>
+  <si>
+    <t>B112</t>
+  </si>
+  <si>
+    <t>介紹企業在社會中的責任及其對企業運營的影響。</t>
+  </si>
+  <si>
+    <t>心理健康</t>
+  </si>
+  <si>
+    <t>B113</t>
+  </si>
+  <si>
+    <t>探討心理健康的概念、心理疾病及其預防措施。</t>
+  </si>
+  <si>
+    <t>藝術與文化</t>
+  </si>
+  <si>
+    <t>B114</t>
+  </si>
+  <si>
+    <t>介紹藝術與文化的相互影響，涵蓋各種藝術形式。</t>
+  </si>
+  <si>
+    <t>餐飲管理</t>
+  </si>
+  <si>
+    <t>星期五 15:00-17:00</t>
+  </si>
+  <si>
+    <t>B115</t>
+  </si>
+  <si>
+    <t>研究餐飲業的管理技巧與實務，包括菜單設計與成本控制。</t>
+  </si>
+  <si>
+    <t>體育與運動科學</t>
+  </si>
+  <si>
+    <t>B116</t>
+  </si>
+  <si>
+    <t>介紹運動科學的基本概念，涵蓋生理學與心理學的應用。</t>
+  </si>
+  <si>
+    <t>平時 25%、期中考 25%、期末考 25%、實習 25%</t>
+  </si>
+  <si>
+    <t>音樂欣賞</t>
+  </si>
+  <si>
+    <t>B117</t>
+  </si>
+  <si>
+    <t>透過音樂欣賞增進學生對不同音樂風格的了解與感受。</t>
+  </si>
+  <si>
+    <t>數位行銷</t>
+  </si>
+  <si>
+    <t>星期三 08:00-10:00</t>
+  </si>
+  <si>
+    <t>B118</t>
+  </si>
+  <si>
+    <t>研究數位行銷的工具與策略，涵蓋社群媒體與SEO等。</t>
+  </si>
+  <si>
+    <t>程式設計入門</t>
+  </si>
+  <si>
+    <t>C101</t>
+  </si>
+  <si>
+    <t>介紹程式設計的基本概念，涵蓋 Python 語言的基礎語法。</t>
+  </si>
+  <si>
+    <t>數據庫管理系統</t>
+  </si>
+  <si>
+    <t>C102</t>
+  </si>
+  <si>
+    <t>本課程探討資料庫設計與管理，重點在 SQL 語言的應用。</t>
+  </si>
+  <si>
+    <t>網頁開發</t>
+  </si>
+  <si>
+    <t>C103</t>
+  </si>
+  <si>
+    <t>介紹 HTML、CSS 和 JavaScript，學習網頁設計與開發技巧。</t>
+  </si>
+  <si>
+    <t>演算法設計</t>
+  </si>
+  <si>
+    <t>C104</t>
+  </si>
+  <si>
+    <t>本課程涵蓋演算法分析與設計，探討其在問題解決中的應用。</t>
+  </si>
+  <si>
+    <t>C105</t>
+  </si>
+  <si>
+    <t>本課程探討軟體開發流程、工具及測試方法，增進團隊合作能力。</t>
+  </si>
+  <si>
+    <t>C106</t>
+  </si>
+  <si>
+    <t>介紹計算機網絡的基本概念與協定，涵蓋路由與網絡安全問題。</t>
+  </si>
+  <si>
+    <t>平時 25%、期中考 25%、期末考 50%</t>
+  </si>
+  <si>
+    <t>C107</t>
+  </si>
+  <si>
+    <t>本課程介紹人工智慧的基本概念及其應用，涵蓋機器學習技術。</t>
+  </si>
+  <si>
+    <t>移動應用開發</t>
+  </si>
+  <si>
+    <t>C108</t>
+  </si>
+  <si>
+    <t>探討移動應用開發的流程與技術，學習 iOS 和 Android 開發。</t>
+  </si>
+  <si>
+    <t>軟體測試</t>
+  </si>
+  <si>
+    <t>C109</t>
+  </si>
+  <si>
+    <t>本課程重點在於軟體測試技術與策略，提升軟體品質。</t>
+  </si>
+  <si>
+    <t>網頁設計</t>
+  </si>
+  <si>
+    <t>C110</t>
+  </si>
+  <si>
+    <t>本課程涵蓋網頁設計的基本技巧，包括響應式設計的概念。</t>
+  </si>
+  <si>
+    <t>資訊安全</t>
+  </si>
+  <si>
+    <t>C111</t>
+  </si>
+  <si>
+    <t>介紹資訊安全的基本概念與技術，探討資料保護與風險管理。</t>
+  </si>
+  <si>
+    <t>物聯網</t>
+  </si>
+  <si>
+    <t>C112</t>
+  </si>
+  <si>
+    <t>本課程探討物聯網技術的基本概念，涵蓋應用與安全性問題。</t>
+  </si>
+  <si>
+    <t>C113</t>
+  </si>
+  <si>
+    <t>本課程介紹大數據的分析技術，探討數據挖掘與資料視覺化。</t>
+  </si>
+  <si>
+    <t>C114</t>
+  </si>
+  <si>
+    <t>介紹機器學習的基本理論，涵蓋監督與非監督學習的技巧。</t>
+  </si>
+  <si>
+    <t>C115</t>
+  </si>
+  <si>
+    <t>本課程探討電子商務的運作模式與技術，分析其市場趨勢。</t>
+  </si>
+  <si>
+    <t>虛擬實境</t>
+  </si>
+  <si>
+    <t>C116</t>
+  </si>
+  <si>
+    <t>介紹虛擬實境的基本概念與技術，探討其在各領域的應用。</t>
+  </si>
+  <si>
+    <t>資訊倫理</t>
+  </si>
+  <si>
+    <t>星期二 14:00-16:00</t>
+  </si>
+  <si>
+    <t>C117</t>
+  </si>
+  <si>
+    <t>本課程探討資訊倫理的基本原則與法律問題。</t>
+  </si>
+  <si>
+    <t>環境科學導論</t>
+  </si>
+  <si>
+    <t>C201</t>
+  </si>
+  <si>
+    <t>黃世仁</t>
+  </si>
+  <si>
+    <t>B7654321</t>
+  </si>
+  <si>
+    <t>本課程介紹環境科學的基本概念，探討環境保護的重要性。</t>
+  </si>
+  <si>
+    <t>美術欣賞</t>
+  </si>
+  <si>
+    <t>C202</t>
+  </si>
+  <si>
+    <t>B7654322</t>
+  </si>
+  <si>
+    <t>透過分析與討論，增進學生對各種藝術作品的欣賞能力。</t>
+  </si>
+  <si>
+    <t>C203</t>
+  </si>
+  <si>
+    <t>B7654323</t>
+  </si>
+  <si>
+    <t>本課程探討醫學領域中的倫理問題，增進學生的道德判斷能力。</t>
+  </si>
+  <si>
+    <t>行為科學</t>
+  </si>
+  <si>
+    <t>C204</t>
+  </si>
+  <si>
+    <t>張大明</t>
+  </si>
+  <si>
+    <t>B7654324</t>
+  </si>
+  <si>
+    <t>研究人類行為的基本理論與實驗方法，探討心理因素對行為的影響。</t>
+  </si>
+  <si>
+    <t>C205</t>
+  </si>
+  <si>
+    <t>王小華</t>
+  </si>
+  <si>
+    <t>B7654325</t>
+  </si>
+  <si>
+    <t>本課程介紹財務管理的基本原則，強調資本運作與風險管理。</t>
+  </si>
+  <si>
+    <t>企業行為</t>
+  </si>
+  <si>
+    <t>C206</t>
+  </si>
+  <si>
+    <t>B7654326</t>
+  </si>
+  <si>
+    <t>研究企業內部的行為模式及其對組織效能的影響。</t>
+  </si>
+  <si>
+    <t>C207</t>
+  </si>
+  <si>
+    <t>張秀珍</t>
+  </si>
+  <si>
+    <t>B7654327</t>
+  </si>
+  <si>
+    <t>探討數位行銷的策略與工具，幫助學生掌握數位時代的行銷技巧。</t>
+  </si>
+  <si>
+    <t>機械設計</t>
+  </si>
+  <si>
+    <t>C208</t>
+  </si>
+  <si>
+    <t>B7654328</t>
+  </si>
+  <si>
+    <t>本課程介紹機械設計的基本原則，學習設計流程與技術。</t>
+  </si>
+  <si>
+    <t>C209</t>
+  </si>
+  <si>
+    <t>B7654329</t>
+  </si>
+  <si>
+    <t>研究國際政治的基本理論，分析全球事務中的重要議題與趨勢。</t>
+  </si>
+  <si>
+    <t>音樂與社會</t>
+  </si>
+  <si>
+    <t>C210</t>
+  </si>
+  <si>
+    <t>B7654330</t>
+  </si>
+  <si>
+    <t>探討音樂在社會中的角色，分析音樂文化的影響與變遷。</t>
+  </si>
+  <si>
+    <t>運動科學</t>
+  </si>
+  <si>
+    <t>C211</t>
+  </si>
+  <si>
+    <t>B7654331</t>
+  </si>
+  <si>
+    <t>本課程介紹運動科學的基本理論，研究運動對人體的影響。</t>
+  </si>
+  <si>
+    <t>心理學研究方法</t>
+  </si>
+  <si>
+    <t>C212</t>
+  </si>
+  <si>
+    <t>B7654332</t>
+  </si>
+  <si>
+    <t>本課程介紹心理學的研究方法，學習如何設計與進行實驗。</t>
+  </si>
+  <si>
+    <t>食品科學</t>
+  </si>
+  <si>
+    <t>C213</t>
+  </si>
+  <si>
+    <t>B7654333</t>
+  </si>
+  <si>
+    <t>研究食品科學的基本概念，分析食品安全與品質管理。</t>
+  </si>
+  <si>
+    <t>數學與統計</t>
+  </si>
+  <si>
+    <t>C214</t>
+  </si>
+  <si>
+    <t>B7654334</t>
+  </si>
+  <si>
+    <t>本課程介紹數學與統計的基本理論，學習數據分析技巧。</t>
+  </si>
+  <si>
+    <t>文學與社會</t>
+  </si>
+  <si>
+    <t>C215</t>
+  </si>
+  <si>
+    <t>B7654335</t>
+  </si>
+  <si>
+    <t>研究文學作品的社會背景，探討文學與文化的關聯性。</t>
+  </si>
+  <si>
+    <t>供應鏈管理</t>
+  </si>
+  <si>
+    <t>C216</t>
+  </si>
+  <si>
+    <t>B7654336</t>
+  </si>
+  <si>
+    <t>本課程探討供應鏈管理的基本概念，分析運營效率與成本控制。</t>
+  </si>
+  <si>
+    <t>健康心理學</t>
+  </si>
+  <si>
+    <t>C217</t>
+  </si>
+  <si>
+    <t>B7654337</t>
+  </si>
+  <si>
+    <t>研究心理健康的基本概念，探討心理因素對健康的影響。</t>
+  </si>
+  <si>
+    <t>劉小華</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳小亮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃小華</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭小莉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭小明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>許小英</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴小偉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏小美</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡小華</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳小波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳小妍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴小芳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>張小兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1234567</t>
+  </si>
+  <si>
+    <t>李小華</t>
+  </si>
+  <si>
+    <t>陳大仁</t>
+  </si>
+  <si>
+    <t>D6543210</t>
+  </si>
+  <si>
+    <t>D3210987</t>
+  </si>
+  <si>
+    <t>D2109876</t>
+  </si>
+  <si>
+    <t>D7654320</t>
+  </si>
+  <si>
+    <t>D6543201</t>
+  </si>
+  <si>
+    <t>D5432167</t>
+  </si>
+  <si>
+    <t>D4321098</t>
+  </si>
+  <si>
+    <t>陳美華</t>
+  </si>
+  <si>
+    <t>D3210986</t>
+  </si>
+  <si>
+    <t>陳欣怡</t>
+  </si>
+  <si>
+    <t>D1234560</t>
+  </si>
+  <si>
+    <t>王志明</t>
+  </si>
+  <si>
+    <t>D9876542</t>
+  </si>
+  <si>
+    <t>林志偉</t>
+  </si>
+  <si>
+    <t>D6543217</t>
+  </si>
+  <si>
+    <t>蔡明珠</t>
+  </si>
+  <si>
+    <t>D5432190</t>
+  </si>
+  <si>
+    <t>劉家榮</t>
+  </si>
+  <si>
+    <t>D2109873</t>
+  </si>
+  <si>
+    <t>鄭心怡</t>
+  </si>
+  <si>
+    <t>D3210975</t>
+  </si>
+  <si>
+    <t>吳俊傑</t>
+  </si>
+  <si>
+    <t>D8765431</t>
+  </si>
+  <si>
+    <t>陳美妍</t>
+  </si>
+  <si>
+    <t>D5432156</t>
+  </si>
+  <si>
+    <t>林佳儀</t>
+  </si>
+  <si>
+    <t>D7654324</t>
+  </si>
+  <si>
+    <t>蘇玉芳</t>
+  </si>
+  <si>
+    <t>D3210864</t>
+  </si>
+  <si>
+    <t>蔡家瑩</t>
+  </si>
+  <si>
+    <t>D2109872</t>
+  </si>
+  <si>
+    <t>陳文豪</t>
+  </si>
+  <si>
+    <t>D8765409</t>
+  </si>
+  <si>
+    <t>劉子彥</t>
+  </si>
+  <si>
+    <t>D5432198</t>
+  </si>
+  <si>
+    <t>張雅雯</t>
+  </si>
+  <si>
+    <t>D9876506</t>
+  </si>
+  <si>
+    <t>陳宥廷</t>
+  </si>
+  <si>
+    <t>D7654312</t>
+  </si>
+  <si>
+    <t>鄭家豪</t>
+  </si>
+  <si>
+    <t>D6543203</t>
+  </si>
+  <si>
+    <t>吳佳麟</t>
+  </si>
+  <si>
+    <t>D5432165</t>
+  </si>
+  <si>
+    <t>D7654321</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2345678</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0987654</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人課表\D1234567.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D7654321.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2345678.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543210.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210987.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2109876.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D0987654.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D7654320.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543201.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432167.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D4321098.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210986.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D1234560.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D9876542.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543217.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432190.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2109873.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210975.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D8765431.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432156.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D7654324.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210864.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2109872.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D8765409.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432198.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D9876506.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D7654312.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543203.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432165.xlsx</t>
+  </si>
+  <si>
     <t>課堂助教1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>助教證號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="&quot;Google Sans&quot;"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>課堂助教</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="&quot;Google Sans&quot;"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>助教證號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="&quot;Google Sans&quot;"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>心理學概論</t>
-  </si>
-  <si>
-    <t>B101</t>
-  </si>
-  <si>
-    <t>介紹心理學的基本理論、研究方法及應用範疇。</t>
-  </si>
-  <si>
-    <t>平時 20%、期中考 30%、期末考 50%</t>
-  </si>
-  <si>
-    <t>行銷學</t>
-  </si>
-  <si>
-    <t>B102</t>
-  </si>
-  <si>
-    <t>本課程探討行銷理論、策略及其實務應用。</t>
-  </si>
-  <si>
-    <t>平時 25%、期中考 25%、期末考 25%、專題 25%</t>
-  </si>
-  <si>
-    <t>社會學導論</t>
-  </si>
-  <si>
-    <t>B103</t>
-  </si>
-  <si>
-    <t>探討社會結構與社會行為的基本概念及研究方法。</t>
-  </si>
-  <si>
-    <t>B104</t>
-  </si>
-  <si>
-    <t>介紹財務管理的基本原則與工具，分析企業財務決策。</t>
-  </si>
-  <si>
-    <t>企業管理</t>
-  </si>
-  <si>
-    <t>B105</t>
-  </si>
-  <si>
-    <t>本課程涵蓋企業管理的各個領域，包括計劃、組織、控制。</t>
-  </si>
-  <si>
-    <t>國際貿易</t>
-  </si>
-  <si>
-    <t>B106</t>
-  </si>
-  <si>
-    <t>介紹國際貿易的基本概念、理論及實務操作。</t>
-  </si>
-  <si>
-    <t>文化研究</t>
-  </si>
-  <si>
-    <t>星期二 11:00-13:00</t>
-  </si>
-  <si>
-    <t>B107</t>
-  </si>
-  <si>
-    <t>本課程探討文化的形成、發展及其社會影響。</t>
-  </si>
-  <si>
-    <t>法律導論</t>
-  </si>
-  <si>
-    <t>B108</t>
-  </si>
-  <si>
-    <t>介紹法律的基本概念、體系及其在社會中的角色。</t>
-  </si>
-  <si>
-    <t>B109</t>
-  </si>
-  <si>
-    <t>探討環境科學的基本概念及環境問題的解決方案。</t>
-  </si>
-  <si>
-    <t>教育心理學</t>
-  </si>
-  <si>
-    <t>星期五 08:00-10:00</t>
-  </si>
-  <si>
-    <t>B110</t>
-  </si>
-  <si>
-    <t>研究心理學在教育中的應用，包括學習動機與教學策略。</t>
-  </si>
-  <si>
-    <t>醫學倫理</t>
-  </si>
-  <si>
-    <t>B111</t>
-  </si>
-  <si>
-    <t>本課程探討醫學實踐中的倫理問題與道德決策。</t>
-  </si>
-  <si>
-    <t>企業社會責任</t>
-  </si>
-  <si>
-    <t>B112</t>
-  </si>
-  <si>
-    <t>介紹企業在社會中的責任及其對企業運營的影響。</t>
-  </si>
-  <si>
-    <t>心理健康</t>
-  </si>
-  <si>
-    <t>B113</t>
-  </si>
-  <si>
-    <t>探討心理健康的概念、心理疾病及其預防措施。</t>
-  </si>
-  <si>
-    <t>藝術與文化</t>
-  </si>
-  <si>
-    <t>B114</t>
-  </si>
-  <si>
-    <t>介紹藝術與文化的相互影響，涵蓋各種藝術形式。</t>
-  </si>
-  <si>
-    <t>餐飲管理</t>
-  </si>
-  <si>
-    <t>星期五 15:00-17:00</t>
-  </si>
-  <si>
-    <t>B115</t>
-  </si>
-  <si>
-    <t>研究餐飲業的管理技巧與實務，包括菜單設計與成本控制。</t>
-  </si>
-  <si>
-    <t>體育與運動科學</t>
-  </si>
-  <si>
-    <t>B116</t>
-  </si>
-  <si>
-    <t>介紹運動科學的基本概念，涵蓋生理學與心理學的應用。</t>
-  </si>
-  <si>
-    <t>平時 25%、期中考 25%、期末考 25%、實習 25%</t>
-  </si>
-  <si>
-    <t>音樂欣賞</t>
-  </si>
-  <si>
-    <t>B117</t>
-  </si>
-  <si>
-    <t>透過音樂欣賞增進學生對不同音樂風格的了解與感受。</t>
-  </si>
-  <si>
-    <t>數位行銷</t>
-  </si>
-  <si>
-    <t>星期三 08:00-10:00</t>
-  </si>
-  <si>
-    <t>B118</t>
-  </si>
-  <si>
-    <t>研究數位行銷的工具與策略，涵蓋社群媒體與SEO等。</t>
-  </si>
-  <si>
-    <t>程式設計入門</t>
-  </si>
-  <si>
-    <t>C101</t>
-  </si>
-  <si>
-    <t>介紹程式設計的基本概念，涵蓋 Python 語言的基礎語法。</t>
-  </si>
-  <si>
-    <t>數據庫管理系統</t>
-  </si>
-  <si>
-    <t>C102</t>
-  </si>
-  <si>
-    <t>本課程探討資料庫設計與管理，重點在 SQL 語言的應用。</t>
-  </si>
-  <si>
-    <t>網頁開發</t>
-  </si>
-  <si>
-    <t>C103</t>
-  </si>
-  <si>
-    <t>介紹 HTML、CSS 和 JavaScript，學習網頁設計與開發技巧。</t>
-  </si>
-  <si>
-    <t>演算法設計</t>
-  </si>
-  <si>
-    <t>C104</t>
-  </si>
-  <si>
-    <t>本課程涵蓋演算法分析與設計，探討其在問題解決中的應用。</t>
-  </si>
-  <si>
-    <t>C105</t>
-  </si>
-  <si>
-    <t>本課程探討軟體開發流程、工具及測試方法，增進團隊合作能力。</t>
-  </si>
-  <si>
-    <t>C106</t>
-  </si>
-  <si>
-    <t>介紹計算機網絡的基本概念與協定，涵蓋路由與網絡安全問題。</t>
-  </si>
-  <si>
-    <t>平時 25%、期中考 25%、期末考 50%</t>
-  </si>
-  <si>
-    <t>C107</t>
-  </si>
-  <si>
-    <t>本課程介紹人工智慧的基本概念及其應用，涵蓋機器學習技術。</t>
-  </si>
-  <si>
-    <t>移動應用開發</t>
-  </si>
-  <si>
-    <t>C108</t>
-  </si>
-  <si>
-    <t>探討移動應用開發的流程與技術，學習 iOS 和 Android 開發。</t>
-  </si>
-  <si>
-    <t>軟體測試</t>
-  </si>
-  <si>
-    <t>C109</t>
-  </si>
-  <si>
-    <t>本課程重點在於軟體測試技術與策略，提升軟體品質。</t>
-  </si>
-  <si>
-    <t>網頁設計</t>
-  </si>
-  <si>
-    <t>C110</t>
-  </si>
-  <si>
-    <t>本課程涵蓋網頁設計的基本技巧，包括響應式設計的概念。</t>
-  </si>
-  <si>
-    <t>資訊安全</t>
-  </si>
-  <si>
-    <t>C111</t>
-  </si>
-  <si>
-    <t>介紹資訊安全的基本概念與技術，探討資料保護與風險管理。</t>
-  </si>
-  <si>
-    <t>物聯網</t>
-  </si>
-  <si>
-    <t>C112</t>
-  </si>
-  <si>
-    <t>本課程探討物聯網技術的基本概念，涵蓋應用與安全性問題。</t>
-  </si>
-  <si>
-    <t>C113</t>
-  </si>
-  <si>
-    <t>本課程介紹大數據的分析技術，探討數據挖掘與資料視覺化。</t>
-  </si>
-  <si>
-    <t>C114</t>
-  </si>
-  <si>
-    <t>介紹機器學習的基本理論，涵蓋監督與非監督學習的技巧。</t>
-  </si>
-  <si>
-    <t>C115</t>
-  </si>
-  <si>
-    <t>本課程探討電子商務的運作模式與技術，分析其市場趨勢。</t>
-  </si>
-  <si>
-    <t>虛擬實境</t>
-  </si>
-  <si>
-    <t>C116</t>
-  </si>
-  <si>
-    <t>介紹虛擬實境的基本概念與技術，探討其在各領域的應用。</t>
-  </si>
-  <si>
-    <t>資訊倫理</t>
-  </si>
-  <si>
-    <t>星期二 14:00-16:00</t>
-  </si>
-  <si>
-    <t>C117</t>
-  </si>
-  <si>
-    <t>本課程探討資訊倫理的基本原則與法律問題。</t>
-  </si>
-  <si>
-    <t>環境科學導論</t>
-  </si>
-  <si>
-    <t>C201</t>
-  </si>
-  <si>
-    <t>黃世仁</t>
-  </si>
-  <si>
-    <t>B7654321</t>
-  </si>
-  <si>
-    <t>本課程介紹環境科學的基本概念，探討環境保護的重要性。</t>
-  </si>
-  <si>
-    <t>美術欣賞</t>
-  </si>
-  <si>
-    <t>C202</t>
-  </si>
-  <si>
-    <t>B7654322</t>
-  </si>
-  <si>
-    <t>透過分析與討論，增進學生對各種藝術作品的欣賞能力。</t>
-  </si>
-  <si>
-    <t>C203</t>
-  </si>
-  <si>
-    <t>B7654323</t>
-  </si>
-  <si>
-    <t>本課程探討醫學領域中的倫理問題，增進學生的道德判斷能力。</t>
-  </si>
-  <si>
-    <t>行為科學</t>
-  </si>
-  <si>
-    <t>C204</t>
-  </si>
-  <si>
-    <t>張大明</t>
-  </si>
-  <si>
-    <t>B7654324</t>
-  </si>
-  <si>
-    <t>研究人類行為的基本理論與實驗方法，探討心理因素對行為的影響。</t>
-  </si>
-  <si>
-    <t>C205</t>
-  </si>
-  <si>
-    <t>王小華</t>
-  </si>
-  <si>
-    <t>B7654325</t>
-  </si>
-  <si>
-    <t>本課程介紹財務管理的基本原則，強調資本運作與風險管理。</t>
-  </si>
-  <si>
-    <t>企業行為</t>
-  </si>
-  <si>
-    <t>C206</t>
-  </si>
-  <si>
-    <t>B7654326</t>
-  </si>
-  <si>
-    <t>研究企業內部的行為模式及其對組織效能的影響。</t>
-  </si>
-  <si>
-    <t>C207</t>
-  </si>
-  <si>
-    <t>張秀珍</t>
-  </si>
-  <si>
-    <t>B7654327</t>
-  </si>
-  <si>
-    <t>探討數位行銷的策略與工具，幫助學生掌握數位時代的行銷技巧。</t>
-  </si>
-  <si>
-    <t>機械設計</t>
-  </si>
-  <si>
-    <t>C208</t>
-  </si>
-  <si>
-    <t>B7654328</t>
-  </si>
-  <si>
-    <t>本課程介紹機械設計的基本原則，學習設計流程與技術。</t>
-  </si>
-  <si>
-    <t>C209</t>
-  </si>
-  <si>
-    <t>B7654329</t>
-  </si>
-  <si>
-    <t>研究國際政治的基本理論，分析全球事務中的重要議題與趨勢。</t>
-  </si>
-  <si>
-    <t>音樂與社會</t>
-  </si>
-  <si>
-    <t>C210</t>
-  </si>
-  <si>
-    <t>B7654330</t>
-  </si>
-  <si>
-    <t>探討音樂在社會中的角色，分析音樂文化的影響與變遷。</t>
-  </si>
-  <si>
-    <t>運動科學</t>
-  </si>
-  <si>
-    <t>C211</t>
-  </si>
-  <si>
-    <t>B7654331</t>
-  </si>
-  <si>
-    <t>本課程介紹運動科學的基本理論，研究運動對人體的影響。</t>
-  </si>
-  <si>
-    <t>心理學研究方法</t>
-  </si>
-  <si>
-    <t>C212</t>
-  </si>
-  <si>
-    <t>B7654332</t>
-  </si>
-  <si>
-    <t>本課程介紹心理學的研究方法，學習如何設計與進行實驗。</t>
-  </si>
-  <si>
-    <t>食品科學</t>
-  </si>
-  <si>
-    <t>C213</t>
-  </si>
-  <si>
-    <t>B7654333</t>
-  </si>
-  <si>
-    <t>研究食品科學的基本概念，分析食品安全與品質管理。</t>
-  </si>
-  <si>
-    <t>數學與統計</t>
-  </si>
-  <si>
-    <t>C214</t>
-  </si>
-  <si>
-    <t>B7654334</t>
-  </si>
-  <si>
-    <t>本課程介紹數學與統計的基本理論，學習數據分析技巧。</t>
-  </si>
-  <si>
-    <t>文學與社會</t>
-  </si>
-  <si>
-    <t>C215</t>
-  </si>
-  <si>
-    <t>B7654335</t>
-  </si>
-  <si>
-    <t>研究文學作品的社會背景，探討文學與文化的關聯性。</t>
-  </si>
-  <si>
-    <t>供應鏈管理</t>
-  </si>
-  <si>
-    <t>C216</t>
-  </si>
-  <si>
-    <t>B7654336</t>
-  </si>
-  <si>
-    <t>本課程探討供應鏈管理的基本概念，分析運營效率與成本控制。</t>
-  </si>
-  <si>
-    <t>健康心理學</t>
-  </si>
-  <si>
-    <t>C217</t>
-  </si>
-  <si>
-    <t>B7654337</t>
-  </si>
-  <si>
-    <t>研究心理健康的基本概念，探討心理因素對健康的影響。</t>
-  </si>
-  <si>
-    <t>劉小華</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳小亮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃小華</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>助教證號1</t>
+  </si>
+  <si>
+    <t>課堂助教2</t>
+  </si>
+  <si>
+    <t>助教證號2</t>
+  </si>
+  <si>
+    <t>學分</t>
+  </si>
+  <si>
+    <t>蔡小華</t>
   </si>
   <si>
     <t>鄭小莉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭小明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>許小英</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>賴小偉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏小美</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡小華</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吳小波</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳小妍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>賴小芳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>張小兵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1234567</t>
-  </si>
-  <si>
-    <t>李小華</t>
-  </si>
-  <si>
-    <t>陳大仁</t>
-  </si>
-  <si>
-    <t>D6543210</t>
-  </si>
-  <si>
-    <t>D3210987</t>
-  </si>
-  <si>
-    <t>D2109876</t>
-  </si>
-  <si>
-    <t>D7654320</t>
-  </si>
-  <si>
-    <t>D6543201</t>
-  </si>
-  <si>
-    <t>D5432167</t>
-  </si>
-  <si>
-    <t>D4321098</t>
-  </si>
-  <si>
-    <t>陳美華</t>
-  </si>
-  <si>
-    <t>D3210986</t>
-  </si>
-  <si>
-    <t>陳欣怡</t>
-  </si>
-  <si>
-    <t>D1234560</t>
-  </si>
-  <si>
-    <t>王志明</t>
-  </si>
-  <si>
-    <t>D9876542</t>
-  </si>
-  <si>
-    <t>林志偉</t>
-  </si>
-  <si>
-    <t>D6543217</t>
-  </si>
-  <si>
-    <t>蔡明珠</t>
-  </si>
-  <si>
-    <t>D5432190</t>
-  </si>
-  <si>
-    <t>劉家榮</t>
-  </si>
-  <si>
-    <t>D2109873</t>
-  </si>
-  <si>
-    <t>鄭心怡</t>
-  </si>
-  <si>
-    <t>D3210975</t>
-  </si>
-  <si>
-    <t>吳俊傑</t>
-  </si>
-  <si>
-    <t>D8765431</t>
-  </si>
-  <si>
-    <t>陳美妍</t>
-  </si>
-  <si>
-    <t>D5432156</t>
-  </si>
-  <si>
-    <t>林佳儀</t>
-  </si>
-  <si>
-    <t>D7654324</t>
-  </si>
-  <si>
-    <t>蘇玉芳</t>
-  </si>
-  <si>
-    <t>D3210864</t>
-  </si>
-  <si>
-    <t>蔡家瑩</t>
-  </si>
-  <si>
-    <t>D2109872</t>
-  </si>
-  <si>
-    <t>陳文豪</t>
-  </si>
-  <si>
-    <t>D8765409</t>
-  </si>
-  <si>
-    <t>劉子彥</t>
-  </si>
-  <si>
-    <t>D5432198</t>
-  </si>
-  <si>
-    <t>張雅雯</t>
-  </si>
-  <si>
-    <t>D9876506</t>
-  </si>
-  <si>
-    <t>陳宥廷</t>
-  </si>
-  <si>
-    <t>D7654312</t>
-  </si>
-  <si>
-    <t>鄭家豪</t>
-  </si>
-  <si>
-    <t>D6543203</t>
-  </si>
-  <si>
-    <t>吳佳麟</t>
-  </si>
-  <si>
-    <t>D5432165</t>
-  </si>
-  <si>
-    <t>學分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>D7654321</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>D2345678</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>D0987654</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>個人課表\D1234567.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D7654321.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D2345678.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D6543210.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D3210987.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D2109876.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D0987654.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D7654320.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D6543201.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432167.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D4321098.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D3210986.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D1234560.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D9876542.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D6543217.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432190.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D2109873.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D3210975.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D8765431.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432156.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D7654324.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D3210864.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D2109872.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D8765409.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432198.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D9876506.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D7654312.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D6543203.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432165.xlsx</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>星期一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 08:00-10:00</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人課表\T1234567.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234566.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234565.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234564.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234563.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234562.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234561.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234560.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234558.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234556.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234555.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234554.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234553.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234552.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234551.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234550.xlsx</t>
+  </si>
+  <si>
+    <t>A9876540</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人課表/A9876543.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876542.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876541.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876540.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876539.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876538.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876537.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876536.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876535.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876534.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876533.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876532.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876531.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876530.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876529.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876528.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876527.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876526.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1300,12 +1321,8 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="&quot;Google Sans&quot;"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1336,20 +1353,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="&quot;Google Sans&quot;"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -1358,18 +1361,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1383,11 +1378,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1395,40 +1390,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1651,13 +1658,13 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -1668,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1676,14 +1683,14 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>359</v>
+      <c r="B2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1691,14 +1698,14 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>360</v>
+      <c r="A3" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1706,14 +1713,14 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>361</v>
+      <c r="A4" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1721,14 +1728,14 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>362</v>
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1736,14 +1743,14 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>363</v>
+      <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1751,14 +1758,14 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>364</v>
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1766,14 +1773,14 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>365</v>
+      <c r="B8" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1781,14 +1788,14 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>366</v>
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1796,14 +1803,14 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>367</v>
+      <c r="B10" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1811,14 +1818,14 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>368</v>
+      <c r="B11" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1826,14 +1833,14 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>369</v>
+      <c r="B12" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1841,14 +1848,14 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>370</v>
+      <c r="A13" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1856,194 +1863,194 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C18" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C15" s="11" t="s">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="11" t="s">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C17" s="11" t="s">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C18" s="11" t="s">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C19" s="11" t="s">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C20" s="11" t="s">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C21" s="11" t="s">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>387</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E4DDE1D8-6446-4F60-A395-6A56D2961077}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{25D814AA-057D-4FD9-8086-A58B789874B0}"/>
@@ -2084,13 +2091,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -2100,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2112,7 +2122,9 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="6" t="s">
+        <v>386</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
@@ -2123,7 +2135,9 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
@@ -2134,7 +2148,9 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="6" t="s">
+        <v>388</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
@@ -2145,7 +2161,9 @@
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="6" t="s">
+        <v>389</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
@@ -2156,7 +2174,9 @@
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="6" t="s">
+        <v>390</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
@@ -2167,7 +2187,9 @@
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="6" t="s">
+        <v>391</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
@@ -2178,7 +2200,9 @@
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="6" t="s">
+        <v>392</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
@@ -2189,123 +2213,138 @@
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="6" t="s">
+        <v>393</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>394</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>395</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>396</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>397</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>398</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>399</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>400</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>401</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2D5A90A8-3C97-4D59-8FC5-A90126739F27}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{707FF527-1FDF-41ED-8FF6-214A9DBA8E12}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{C656A73C-0CD5-40A8-A206-697E915037C9}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{6045194F-6718-485B-BDCB-981BC6B81813}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{CB61354D-96FC-4178-9B5E-3ECAA673DB40}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{3E7D09B9-3EB0-406C-9845-4C2FD5265C9E}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{6D179396-6C58-4EBA-A05C-F312F1106DF5}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{3411F45A-D140-4859-94C9-A5E02F4D12B4}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{D8D640B1-723B-439A-A5B8-62086EAA691E}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{82815945-B65D-4363-B4D1-1B67A12A2141}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{EF924F7B-5B7A-4AFB-8512-FE358C5D9B7C}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{353CA016-AFB4-4EBA-89E8-66A26C66D263}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{06DA2F71-7392-4D66-91C7-EDDD451F50FB}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{07C2D357-B146-435C-8FE1-6353D43433B7}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{633BB4B6-1AE9-4C17-B2BC-CE2B68D63219}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{95F39BBF-FCF1-4313-ADCF-3BE0208AB4F0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -2316,11 +2355,11 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -2330,7 +2369,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
@@ -2340,13 +2379,19 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>296</v>
+      <c r="A3" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
@@ -2356,129 +2401,197 @@
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>297</v>
+      <c r="A5" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>298</v>
+      <c r="A6" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>299</v>
+      <c r="A7" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>300</v>
+      <c r="A8" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>301</v>
+      <c r="A9" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C9" s="6" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>302</v>
+      <c r="A10" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>52</v>
+      <c r="C13" s="6" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>304</v>
+      <c r="A14" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>75</v>
+      <c r="C19" s="6" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4F2A961D-AE27-A14F-AD85-5AD70F34C74B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{DB5EA54E-94BB-324E-A265-C1CB89BA716E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{26537EBF-F0A6-DD4D-B0BD-E71E3C32A475}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E0C2E09A-1E32-2F46-817C-84CE94A2FC94}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{86582132-96D9-9941-BF69-2AB486B5028C}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{EF9E806F-B0AD-6D4B-98BA-42AC282376A1}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{DBB56B60-9CBB-0B4D-920A-F5D19F176E15}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{EED2E0DC-A806-064E-B5ED-E27ACBBDA115}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{8362B9E3-39CC-F844-84A2-A96CEBFBA3BE}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{61212BBC-9E9D-4640-8BAA-BCD4C703EF5B}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{8B60F107-0D37-A342-90DD-13A430321F99}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{C1F5214B-1E37-6847-BF6F-EFCB71249322}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{A19FE595-93BE-E747-8957-6945906C30AF}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{33E3A9B7-97E3-CA42-A4C0-C37B2776D452}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{06D08227-2A57-4242-8C87-93224BA14AC3}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{722F38D7-A523-EC41-A9C5-6E414924147E}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{45D821CD-3BE0-BB43-B05B-5796731B7448}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{89FF4A95-67B6-9A40-A16E-E504EA274C81}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2490,2270 +2603,2252 @@
   </sheetPr>
   <dimension ref="A1:O999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="11" max="11" width="31.33203125" customWidth="1"/>
     <col min="12" max="12" width="45.6640625" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.45" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="27.5" customHeight="1" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="M1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="O1" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="29" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1562</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="11">
+        <v>60</v>
+      </c>
+      <c r="N2" s="11">
+        <v>20</v>
+      </c>
+      <c r="O2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="29" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1573</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="11">
+        <v>50</v>
+      </c>
+      <c r="N3" s="11">
+        <v>8</v>
+      </c>
+      <c r="O3" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="29" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1675</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="11">
+        <v>50</v>
+      </c>
+      <c r="N4" s="11">
+        <v>15</v>
+      </c>
+      <c r="O4" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="29" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1759</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="11">
+        <v>55</v>
+      </c>
+      <c r="N5" s="11">
+        <v>8</v>
+      </c>
+      <c r="O5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="29" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1849</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="11">
+        <v>50</v>
+      </c>
+      <c r="N6" s="11">
+        <v>8</v>
+      </c>
+      <c r="O6" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="29" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1958</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="11">
+        <v>40</v>
+      </c>
+      <c r="N7" s="11">
+        <v>10</v>
+      </c>
+      <c r="O7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="29" thickBot="1">
+      <c r="A8" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1982</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="11">
+        <v>50</v>
+      </c>
+      <c r="N8" s="11">
+        <v>10</v>
+      </c>
+      <c r="O8" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="29" thickBot="1">
+      <c r="A9" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1987</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="11">
+        <v>60</v>
+      </c>
+      <c r="N9" s="11">
+        <v>12</v>
+      </c>
+      <c r="O9" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="29" thickBot="1">
+      <c r="A10" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2365</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="11">
+        <v>55</v>
+      </c>
+      <c r="N10" s="11">
+        <v>12</v>
+      </c>
+      <c r="O10" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="29" thickBot="1">
+      <c r="A11" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2374</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" s="11">
+        <v>50</v>
+      </c>
+      <c r="N11" s="11">
+        <v>12</v>
+      </c>
+      <c r="O11" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="29" thickBot="1">
+      <c r="A12" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2468</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" s="11">
+        <v>45</v>
+      </c>
+      <c r="N12" s="11">
+        <v>12</v>
+      </c>
+      <c r="O12" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="29" thickBot="1">
+      <c r="A13" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2473</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" s="11">
+        <v>40</v>
+      </c>
+      <c r="N13" s="11">
+        <v>15</v>
+      </c>
+      <c r="O13" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="29" thickBot="1">
+      <c r="A14" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2584</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="11">
+        <v>60</v>
+      </c>
+      <c r="N14" s="11">
+        <v>15</v>
+      </c>
+      <c r="O14" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="29" thickBot="1">
+      <c r="A15" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2745</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" s="11">
+        <v>50</v>
+      </c>
+      <c r="N15" s="11">
+        <v>10</v>
+      </c>
+      <c r="O15" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="29" thickBot="1">
+      <c r="A16" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2974</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" s="11">
+        <v>40</v>
+      </c>
+      <c r="N16" s="11">
+        <v>8</v>
+      </c>
+      <c r="O16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="29" thickBot="1">
+      <c r="A17" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2986</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M17" s="11">
+        <v>50</v>
+      </c>
+      <c r="N17" s="11">
+        <v>12</v>
+      </c>
+      <c r="O17" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="29" thickBot="1">
+      <c r="A18" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="11">
+        <v>3641</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" s="11">
+        <v>50</v>
+      </c>
+      <c r="N18" s="11">
+        <v>12</v>
+      </c>
+      <c r="O18" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="29" thickBot="1">
+      <c r="A19" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="11">
+        <v>3741</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" s="11">
+        <v>50</v>
+      </c>
+      <c r="N19" s="11">
+        <v>10</v>
+      </c>
+      <c r="O19" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="29" thickBot="1">
+      <c r="A20" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="11">
+        <v>3827</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" s="11">
+        <v>40</v>
+      </c>
+      <c r="N20" s="11">
+        <v>10</v>
+      </c>
+      <c r="O20" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="29" thickBot="1">
+      <c r="A21" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="11">
+        <v>3845</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M21" s="11">
+        <v>50</v>
+      </c>
+      <c r="N21" s="11">
+        <v>10</v>
+      </c>
+      <c r="O21" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="29" thickBot="1">
+      <c r="A22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="11">
+        <v>4157</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" s="11">
+        <v>40</v>
+      </c>
+      <c r="N22" s="11">
+        <v>5</v>
+      </c>
+      <c r="O22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="29" thickBot="1">
+      <c r="A23" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="11">
+        <v>4217</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M23" s="11">
+        <v>50</v>
+      </c>
+      <c r="N23" s="11">
+        <v>8</v>
+      </c>
+      <c r="O23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="29" thickBot="1">
+      <c r="A24" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="11">
+        <v>4361</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" s="11">
+        <v>50</v>
+      </c>
+      <c r="N24" s="11">
+        <v>15</v>
+      </c>
+      <c r="O24" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="29" thickBot="1">
+      <c r="A25" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="11">
+        <v>4631</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M25" s="11">
+        <v>45</v>
+      </c>
+      <c r="N25" s="11">
+        <v>12</v>
+      </c>
+      <c r="O25" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="29" thickBot="1">
+      <c r="A26" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="11">
+        <v>4731</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" s="11">
+        <v>45</v>
+      </c>
+      <c r="N26" s="11">
+        <v>5</v>
+      </c>
+      <c r="O26" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="29" thickBot="1">
+      <c r="A27" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="11">
+        <v>4765</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" s="11">
+        <v>50</v>
+      </c>
+      <c r="N27" s="11">
+        <v>12</v>
+      </c>
+      <c r="O27" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="29" thickBot="1">
+      <c r="A28" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="11">
+        <v>4823</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" s="11">
+        <v>45</v>
+      </c>
+      <c r="N28" s="11">
+        <v>10</v>
+      </c>
+      <c r="O28" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="29" thickBot="1">
+      <c r="A29" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="11">
+        <v>4927</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M29" s="11">
+        <v>40</v>
+      </c>
+      <c r="N29" s="11">
+        <v>5</v>
+      </c>
+      <c r="O29" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="29" thickBot="1">
+      <c r="A30" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="11">
+        <v>5276</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" s="11">
+        <v>50</v>
+      </c>
+      <c r="N30" s="11">
+        <v>10</v>
+      </c>
+      <c r="O30" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="29" thickBot="1">
+      <c r="A31" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" s="11">
+        <v>5328</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" s="11">
+        <v>50</v>
+      </c>
+      <c r="N31" s="11">
+        <v>10</v>
+      </c>
+      <c r="O31" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="29" thickBot="1">
+      <c r="A32" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="11">
+        <v>5698</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M32" s="11">
+        <v>40</v>
+      </c>
+      <c r="N32" s="11">
+        <v>10</v>
+      </c>
+      <c r="O32" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="29" thickBot="1">
+      <c r="A33" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="11">
+        <v>5763</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M33" s="11">
+        <v>50</v>
+      </c>
+      <c r="N33" s="11">
+        <v>15</v>
+      </c>
+      <c r="O33" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="29" thickBot="1">
+      <c r="A34" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="B34" s="11">
+        <v>5864</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="E34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M34" s="11">
+        <v>50</v>
+      </c>
+      <c r="N34" s="11">
+        <v>10</v>
+      </c>
+      <c r="O34" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="29" thickBot="1">
+      <c r="A35" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="11">
+        <v>6395</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M35" s="11">
+        <v>50</v>
+      </c>
+      <c r="N35" s="11">
+        <v>1</v>
+      </c>
+      <c r="O35" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="29" thickBot="1">
+      <c r="A36" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" s="11">
+        <v>6872</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M36" s="11">
+        <v>40</v>
+      </c>
+      <c r="N36" s="11">
+        <v>10</v>
+      </c>
+      <c r="O36" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="29" thickBot="1">
+      <c r="A37" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" s="11">
+        <v>7312</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" s="11">
+        <v>40</v>
+      </c>
+      <c r="N37" s="11">
+        <v>10</v>
+      </c>
+      <c r="O37" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="29" thickBot="1">
+      <c r="A38" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="11">
+        <v>7423</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M38" s="11">
+        <v>45</v>
+      </c>
+      <c r="N38" s="11">
+        <v>10</v>
+      </c>
+      <c r="O38" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="29" thickBot="1">
+      <c r="A39" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="11">
+        <v>7436</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M39" s="11">
+        <v>60</v>
+      </c>
+      <c r="N39" s="11">
+        <v>12</v>
+      </c>
+      <c r="O39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="29" thickBot="1">
+      <c r="A40" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="11">
+        <v>7546</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M40" s="11">
+        <v>60</v>
+      </c>
+      <c r="N40" s="11">
+        <v>10</v>
+      </c>
+      <c r="O40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="29" thickBot="1">
+      <c r="A41" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" s="11">
+        <v>7631</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M41" s="11">
+        <v>45</v>
+      </c>
+      <c r="N41" s="11">
+        <v>12</v>
+      </c>
+      <c r="O41" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="29" thickBot="1">
+      <c r="A42" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B42" s="11">
+        <v>7641</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M42" s="11">
+        <v>40</v>
+      </c>
+      <c r="N42" s="11">
+        <v>8</v>
+      </c>
+      <c r="O42" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="29" thickBot="1">
+      <c r="A43" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="11">
+        <v>7642</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M43" s="11">
+        <v>45</v>
+      </c>
+      <c r="N43" s="11">
+        <v>7</v>
+      </c>
+      <c r="O43" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="29" thickBot="1">
+      <c r="A44" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="11">
+        <v>8126</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M44" s="11">
+        <v>55</v>
+      </c>
+      <c r="N44" s="11">
+        <v>10</v>
+      </c>
+      <c r="O44" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="29" thickBot="1">
+      <c r="A45" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="11">
+        <v>8194</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M45" s="11">
+        <v>45</v>
+      </c>
+      <c r="N45" s="11">
+        <v>7</v>
+      </c>
+      <c r="O45" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="29" thickBot="1">
+      <c r="A46" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="11">
+        <v>8421</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M46" s="11">
+        <v>40</v>
+      </c>
+      <c r="N46" s="11">
+        <v>12</v>
+      </c>
+      <c r="O46" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="29" thickBot="1">
+      <c r="A47" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="11">
+        <v>8430</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="26.4">
-      <c r="A2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2584</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D47" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M47" s="11">
+        <v>45</v>
+      </c>
+      <c r="N47" s="11">
+        <v>5</v>
+      </c>
+      <c r="O47" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="29" thickBot="1">
+      <c r="A48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="11">
+        <v>8530</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M48" s="11">
+        <v>50</v>
+      </c>
+      <c r="N48" s="11">
+        <v>8</v>
+      </c>
+      <c r="O48" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="29" thickBot="1">
+      <c r="A49" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49" s="11">
+        <v>8642</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M49" s="11">
+        <v>55</v>
+      </c>
+      <c r="N49" s="11">
+        <v>15</v>
+      </c>
+      <c r="O49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="29" thickBot="1">
+      <c r="A50" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="11">
+        <v>8963</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M50" s="11">
+        <v>50</v>
+      </c>
+      <c r="N50" s="11">
+        <v>10</v>
+      </c>
+      <c r="O50" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="29" thickBot="1">
+      <c r="A51" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B51" s="11">
+        <v>9234</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M51" s="11">
+        <v>50</v>
+      </c>
+      <c r="N51" s="11">
+        <v>12</v>
+      </c>
+      <c r="O51" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="29" thickBot="1">
+      <c r="A52" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="11">
+        <v>9584</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M52" s="11">
+        <v>45</v>
+      </c>
+      <c r="N52" s="11">
+        <v>5</v>
+      </c>
+      <c r="O52" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="29" thickBot="1">
+      <c r="A53" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="11">
+        <v>9823</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F53" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M53" s="11">
+        <v>45</v>
+      </c>
+      <c r="N53" s="11">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" s="5">
-        <v>60</v>
-      </c>
-      <c r="N2" s="5">
-        <v>15</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="26.4">
-      <c r="A3" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3845</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M3" s="5">
-        <v>50</v>
-      </c>
-      <c r="N3" s="5">
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="26.4">
-      <c r="A4" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4927</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M4" s="5">
-        <v>40</v>
-      </c>
-      <c r="N4" s="5">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="26.4">
-      <c r="A5" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2468</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M5" s="5">
-        <v>45</v>
-      </c>
-      <c r="N5" s="5">
-        <v>12</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="26.4">
-      <c r="A6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1759</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" s="5">
-        <v>55</v>
-      </c>
-      <c r="N6" s="5">
-        <v>8</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="26.4">
-      <c r="A7" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="5">
-        <v>8963</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M7" s="5">
-        <v>50</v>
-      </c>
-      <c r="N7" s="5">
-        <v>10</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="26.4">
-      <c r="A8" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="5">
-        <v>4157</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M8" s="5">
-        <v>40</v>
-      </c>
-      <c r="N8" s="5">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="26.4">
-      <c r="A9" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="5">
-        <v>7631</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M9" s="5">
-        <v>45</v>
-      </c>
-      <c r="N9" s="5">
-        <v>12</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="26.4">
-      <c r="A10" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="5">
-        <v>5276</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="5">
-        <v>50</v>
-      </c>
-      <c r="N10" s="5">
-        <v>10</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="26.4">
-      <c r="A11" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="5">
-        <v>8194</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" s="5">
-        <v>45</v>
-      </c>
-      <c r="N11" s="5">
-        <v>7</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="26.4">
-      <c r="A12" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2986</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M12" s="5">
-        <v>50</v>
-      </c>
-      <c r="N12" s="5">
-        <v>12</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="26.4">
-      <c r="A13" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="5">
-        <v>6872</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M13" s="5">
-        <v>40</v>
-      </c>
-      <c r="N13" s="5">
-        <v>10</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="26.4">
-      <c r="A14" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="5">
-        <v>4361</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M14" s="5">
-        <v>50</v>
-      </c>
-      <c r="N14" s="5">
-        <v>15</v>
-      </c>
-      <c r="O14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="26.4">
-      <c r="A15" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="5">
-        <v>7423</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M15" s="5">
-        <v>45</v>
-      </c>
-      <c r="N15" s="5">
-        <v>10</v>
-      </c>
-      <c r="O15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="26.4">
-      <c r="A16" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="5">
-        <v>8530</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" s="5">
-        <v>50</v>
-      </c>
-      <c r="N16" s="5">
-        <v>8</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="26.4">
-      <c r="A17" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1958</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M17" s="5">
-        <v>40</v>
-      </c>
-      <c r="N17" s="5">
-        <v>10</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="26.4">
-      <c r="A18" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B18" s="5">
-        <v>4765</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M18" s="5">
-        <v>50</v>
-      </c>
-      <c r="N18" s="5">
-        <v>12</v>
-      </c>
-      <c r="O18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="26.4">
-      <c r="A19" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="5">
-        <v>2473</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="5">
-        <v>40</v>
-      </c>
-      <c r="N19" s="5">
-        <v>15</v>
-      </c>
-      <c r="O19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="26.4">
-      <c r="A20" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="5">
-        <v>5864</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M20" s="5">
-        <v>50</v>
-      </c>
-      <c r="N20" s="5">
-        <v>10</v>
-      </c>
-      <c r="O20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="26.4">
-      <c r="A21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="5">
-        <v>4731</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M21" s="5">
-        <v>45</v>
-      </c>
-      <c r="N21" s="5">
-        <v>5</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="26.4">
-      <c r="A22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1562</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M22" s="5">
-        <v>60</v>
-      </c>
-      <c r="N22" s="5">
-        <v>20</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="26.4">
-      <c r="A23" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="5">
-        <v>2365</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M23" s="5">
-        <v>55</v>
-      </c>
-      <c r="N23" s="5">
-        <v>12</v>
-      </c>
-      <c r="O23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="26.4">
-      <c r="A24" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="5">
-        <v>1849</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M24" s="5">
-        <v>50</v>
-      </c>
-      <c r="N24" s="5">
-        <v>8</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="26.4">
-      <c r="A25" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="5">
-        <v>3827</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M25" s="5">
-        <v>40</v>
-      </c>
-      <c r="N25" s="5">
-        <v>10</v>
-      </c>
-      <c r="O25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="26.4">
-      <c r="A26" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="5">
-        <v>9584</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M26" s="5">
-        <v>45</v>
-      </c>
-      <c r="N26" s="5">
-        <v>5</v>
-      </c>
-      <c r="O26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="26.4">
-      <c r="A27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="5">
-        <v>5763</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M27" s="5">
-        <v>50</v>
-      </c>
-      <c r="N27" s="5">
-        <v>15</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="26.4">
-      <c r="A28" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="5">
-        <v>7642</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M28" s="5">
-        <v>45</v>
-      </c>
-      <c r="N28" s="5">
-        <v>7</v>
-      </c>
-      <c r="O28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="26.4">
-      <c r="A29" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="5">
-        <v>3641</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M29" s="5">
-        <v>50</v>
-      </c>
-      <c r="N29" s="5">
-        <v>12</v>
-      </c>
-      <c r="O29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="26.4">
-      <c r="A30" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="5">
-        <v>7546</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M30" s="5">
-        <v>60</v>
-      </c>
-      <c r="N30" s="5">
-        <v>10</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="26.4">
-      <c r="A31" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="5">
-        <v>8430</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M31" s="5">
-        <v>45</v>
-      </c>
-      <c r="N31" s="5">
-        <v>5</v>
-      </c>
-      <c r="O31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="26.4">
-      <c r="A32" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32" s="5">
-        <v>2745</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M32" s="5">
-        <v>50</v>
-      </c>
-      <c r="N32" s="5">
-        <v>10</v>
-      </c>
-      <c r="O32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="26.4">
-      <c r="A33" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1987</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M33" s="5">
-        <v>60</v>
-      </c>
-      <c r="N33" s="5">
-        <v>12</v>
-      </c>
-      <c r="O33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="26.4">
-      <c r="A34" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" s="5">
-        <v>2974</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="M34" s="5">
-        <v>40</v>
-      </c>
-      <c r="N34" s="5">
-        <v>8</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="26.4">
-      <c r="A35" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B35" s="5">
-        <v>8126</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M35" s="5">
-        <v>55</v>
-      </c>
-      <c r="N35" s="5">
-        <v>10</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="26.4">
-      <c r="A36" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B36" s="5">
-        <v>6395</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M36" s="5">
-        <v>50</v>
-      </c>
-      <c r="N36" s="5">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="26.4">
-      <c r="A37" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B37" s="5">
-        <v>8421</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M37" s="5">
-        <v>40</v>
-      </c>
-      <c r="N37" s="5">
-        <v>12</v>
-      </c>
-      <c r="O37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="26.4">
-      <c r="A38" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B38" s="5">
-        <v>3741</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M38" s="5">
-        <v>50</v>
-      </c>
-      <c r="N38" s="5">
-        <v>10</v>
-      </c>
-      <c r="O38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="26.4">
-      <c r="A39" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" s="5">
-        <v>9823</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M39" s="5">
-        <v>45</v>
-      </c>
-      <c r="N39" s="5">
-        <v>8</v>
-      </c>
-      <c r="O39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="26.4">
-      <c r="A40" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1675</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M40" s="5">
-        <v>50</v>
-      </c>
-      <c r="N40" s="5">
-        <v>15</v>
-      </c>
-      <c r="O40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="26.4">
-      <c r="A41" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="5">
-        <v>7436</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M41" s="5">
-        <v>60</v>
-      </c>
-      <c r="N41" s="5">
-        <v>12</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="26.4">
-      <c r="A42" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B42" s="5">
-        <v>5698</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M42" s="5">
-        <v>40</v>
-      </c>
-      <c r="N42" s="5">
-        <v>10</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="26.4">
-      <c r="A43" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="5">
-        <v>4217</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M43" s="5">
-        <v>50</v>
-      </c>
-      <c r="N43" s="5">
-        <v>8</v>
-      </c>
-      <c r="O43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="26.4">
-      <c r="A44" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B44" s="5">
-        <v>2374</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M44" s="5">
-        <v>50</v>
-      </c>
-      <c r="N44" s="5">
-        <v>12</v>
-      </c>
-      <c r="O44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="26.4">
-      <c r="A45" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="5">
-        <v>4823</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M45" s="5">
-        <v>45</v>
-      </c>
-      <c r="N45" s="5">
-        <v>10</v>
-      </c>
-      <c r="O45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="26.4">
-      <c r="A46" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" s="5">
-        <v>9234</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M46" s="5">
-        <v>50</v>
-      </c>
-      <c r="N46" s="5">
-        <v>12</v>
-      </c>
-      <c r="O46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="26.4">
-      <c r="A47" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B47" s="5">
-        <v>1573</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M47" s="5">
-        <v>50</v>
-      </c>
-      <c r="N47" s="5">
-        <v>8</v>
-      </c>
-      <c r="O47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="26.4">
-      <c r="A48" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B48" s="5">
-        <v>7312</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M48" s="5">
-        <v>40</v>
-      </c>
-      <c r="N48" s="5">
-        <v>10</v>
-      </c>
-      <c r="O48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="26.4">
-      <c r="A49" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B49" s="5">
-        <v>8642</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M49" s="5">
-        <v>55</v>
-      </c>
-      <c r="N49" s="5">
-        <v>15</v>
-      </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="26.4">
-      <c r="A50" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B50" s="5">
-        <v>5328</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M50" s="5">
-        <v>50</v>
-      </c>
-      <c r="N50" s="5">
-        <v>10</v>
-      </c>
-      <c r="O50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="26.4">
-      <c r="A51" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B51" s="5">
-        <v>7641</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M51" s="5">
-        <v>40</v>
-      </c>
-      <c r="N51" s="5">
-        <v>8</v>
-      </c>
-      <c r="O51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="26.4">
-      <c r="A52" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B52" s="5">
-        <v>1982</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M52" s="5">
-        <v>50</v>
-      </c>
-      <c r="N52" s="5">
-        <v>10</v>
-      </c>
-      <c r="O52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="26.4">
-      <c r="A53" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B53" s="5">
-        <v>4631</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M53" s="5">
-        <v>45</v>
-      </c>
-      <c r="N53" s="5">
-        <v>12</v>
-      </c>
-      <c r="O53">
+      <c r="O53" s="11">
         <v>2</v>
       </c>
     </row>
@@ -19894,7 +19989,11 @@
       <c r="N999" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O999">
+    <sortCondition ref="B2:B999"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>